--- a/target/test-classes/exceldata/TestData.xlsx
+++ b/target/test-classes/exceldata/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>TC001</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>UserRole</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Global</t>
   </si>
 </sst>
 </file>
@@ -373,18 +385,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -394,15 +409,57 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/target/test-classes/exceldata/TestData.xlsx
+++ b/target/test-classes/exceldata/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TC001</t>
   </si>
@@ -385,11 +385,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -441,28 +439,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
